--- a/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C461AC-602E-41C4-AA3F-46B4A57CEC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4D7780-9D12-40C2-A9E5-F481BE07A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F76189BB-33D6-41F3-8758-9A8BCEE84A22}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{826463CA-2F80-4C2E-893B-D52B050D39C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
   <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psiquiatra) en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,379 +74,388 @@
     <t>95,53%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>91,97%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -458,19 +467,10 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AADF4ED-3B7D-4668-A4C9-E560195539E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C6A7B-5EE9-4394-B51A-54CB6E37980C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1437,10 +1437,10 @@
         <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1452,10 +1452,10 @@
         <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1523,13 +1523,13 @@
         <v>296697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
@@ -1538,13 +1538,13 @@
         <v>324476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>720</v>
@@ -1553,13 +1553,13 @@
         <v>621173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1574,13 @@
         <v>20751</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1589,13 +1589,13 @@
         <v>9916</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
@@ -1604,13 +1604,13 @@
         <v>30667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,13 +1625,13 @@
         <v>5137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1640,13 +1640,13 @@
         <v>4348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1655,10 +1655,10 @@
         <v>9485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>109</v>
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1706,13 +1706,13 @@
         <v>2436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,16 +1777,16 @@
         <v>1380</v>
       </c>
       <c r="D19" s="7">
-        <v>1382577</v>
+        <v>1382578</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>2222</v>
@@ -1795,13 +1795,13 @@
         <v>1578881</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>3602</v>
@@ -1834,10 +1834,10 @@
         <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -1846,13 +1846,13 @@
         <v>74664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -1861,13 +1861,13 @@
         <v>190339</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1882,13 @@
         <v>10516</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -1897,13 +1897,13 @@
         <v>15891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -1912,13 +1912,13 @@
         <v>26406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1933,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1948,13 +1948,13 @@
         <v>6605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -1963,13 +1963,13 @@
         <v>10127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>1451</v>
       </c>
       <c r="D23" s="7">
-        <v>1512290</v>
+        <v>1512291</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>

--- a/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4D7780-9D12-40C2-A9E5-F481BE07A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190E450A-8ABC-44DD-92BF-4AA921D982A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{826463CA-2F80-4C2E-893B-D52B050D39C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1203C000-B752-4BD3-A9C5-CEE7597C04D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C6A7B-5EE9-4394-B51A-54CB6E37980C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CB6D8-FC2D-471C-A65B-A3AA7FED5FE6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190E450A-8ABC-44DD-92BF-4AA921D982A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2A310B-EDE7-49A0-A1EE-9890A0801227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1203C000-B752-4BD3-A9C5-CEE7597C04D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3218CD8-4B2A-40BC-A3D2-486208221756}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>95,53%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,313 +164,313 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597CB6D8-FC2D-471C-A65B-A3AA7FED5FE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FB262-4E60-43A7-8DB6-6D805855C635}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1437,10 +1437,10 @@
         <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1452,10 +1452,10 @@
         <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,7 +1511,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1523,13 +1523,13 @@
         <v>296697</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
@@ -1538,13 +1538,13 @@
         <v>324476</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>720</v>
@@ -1553,13 +1553,13 @@
         <v>621173</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1574,13 @@
         <v>20751</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -1589,13 +1589,13 @@
         <v>9916</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
@@ -1604,13 +1604,13 @@
         <v>30667</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,13 +1625,13 @@
         <v>5137</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1640,13 +1640,13 @@
         <v>4348</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1655,10 +1655,10 @@
         <v>9485</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>109</v>
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1706,13 +1706,13 @@
         <v>2436</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,16 +1777,16 @@
         <v>1380</v>
       </c>
       <c r="D19" s="7">
-        <v>1382578</v>
+        <v>1382577</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>2222</v>
@@ -1795,13 +1795,13 @@
         <v>1578881</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>3602</v>
@@ -1834,10 +1834,10 @@
         <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
@@ -1846,13 +1846,13 @@
         <v>74664</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
@@ -1861,13 +1861,13 @@
         <v>190339</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1882,13 @@
         <v>10516</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -1897,13 +1897,13 @@
         <v>15891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -1912,13 +1912,13 @@
         <v>26406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1933,13 @@
         <v>3522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1948,13 +1948,13 @@
         <v>6605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -1963,13 +1963,13 @@
         <v>10127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>1451</v>
       </c>
       <c r="D23" s="7">
-        <v>1512291</v>
+        <v>1512290</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>

--- a/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2A310B-EDE7-49A0-A1EE-9890A0801227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C0818A-6305-44A6-B76D-2A9ECC716438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3218CD8-4B2A-40BC-A3D2-486208221756}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8CAEBF5C-6EFB-4939-A862-16985C91BE06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,406 +71,406 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
     <t>95,53%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,06%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9FB262-4E60-43A7-8DB6-6D805855C635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0B412-7000-4F29-8E09-A25D3587D15F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1006,7 +1006,7 @@
         <v>289</v>
       </c>
       <c r="D4" s="7">
-        <v>229268</v>
+        <v>220816</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1021,7 +1021,7 @@
         <v>587</v>
       </c>
       <c r="I4" s="7">
-        <v>347122</v>
+        <v>312601</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1036,7 +1036,7 @@
         <v>876</v>
       </c>
       <c r="N4" s="7">
-        <v>576389</v>
+        <v>533417</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>9061</v>
+        <v>8533</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>18515</v>
+        <v>16607</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1087,7 +1087,7 @@
         <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>27576</v>
+        <v>25140</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1123,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5611</v>
+        <v>4994</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>6197</v>
+        <v>5517</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1174,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2026</v>
+        <v>1791</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3103</v>
+        <v>2795</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1210,7 +1210,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1225,7 +1225,7 @@
         <v>630</v>
       </c>
       <c r="I8" s="7">
-        <v>373274</v>
+        <v>335993</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1240,7 +1240,7 @@
         <v>930</v>
       </c>
       <c r="N8" s="7">
-        <v>613265</v>
+        <v>566870</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1263,7 +1263,7 @@
         <v>796</v>
       </c>
       <c r="D9" s="7">
-        <v>856613</v>
+        <v>833475</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1278,7 +1278,7 @@
         <v>1210</v>
       </c>
       <c r="I9" s="7">
-        <v>907284</v>
+        <v>886275</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1293,7 +1293,7 @@
         <v>2006</v>
       </c>
       <c r="N9" s="7">
-        <v>1763896</v>
+        <v>1719750</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1314,7 +1314,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>85863</v>
+        <v>278275</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1329,7 +1329,7 @@
         <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>46232</v>
+        <v>42105</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1344,7 +1344,7 @@
         <v>97</v>
       </c>
       <c r="N10" s="7">
-        <v>132095</v>
+        <v>320381</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1365,46 +1365,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4793</v>
+        <v>4527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>5931</v>
+        <v>5437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>10725</v>
+        <v>9963</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,46 +1416,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3889</v>
+        <v>3496</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>4589</v>
+        <v>4189</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
         <v>833</v>
       </c>
       <c r="D13" s="7">
-        <v>947970</v>
+        <v>1116969</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1482,7 +1482,7 @@
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1497,7 +1497,7 @@
         <v>2124</v>
       </c>
       <c r="N13" s="7">
-        <v>1911305</v>
+        <v>2054282</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1520,46 +1520,46 @@
         <v>295</v>
       </c>
       <c r="D14" s="7">
-        <v>296697</v>
+        <v>283808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>425</v>
       </c>
       <c r="I14" s="7">
-        <v>324476</v>
+        <v>298616</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>720</v>
       </c>
       <c r="N14" s="7">
-        <v>621173</v>
+        <v>582425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,46 +1571,46 @@
         <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>20751</v>
+        <v>20066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>9916</v>
+        <v>8786</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
       </c>
       <c r="N15" s="7">
-        <v>30667</v>
+        <v>28852</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>5137</v>
+        <v>4625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>103</v>
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>4348</v>
+        <v>4234</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>104</v>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>9485</v>
+        <v>8860</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>107</v>
@@ -1673,46 +1673,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>690</v>
+        <v>651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2436</v>
+        <v>2335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1724,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -1739,7 +1739,7 @@
         <v>443</v>
       </c>
       <c r="I18" s="7">
-        <v>339430</v>
+        <v>312287</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -1754,7 +1754,7 @@
         <v>761</v>
       </c>
       <c r="N18" s="7">
-        <v>663761</v>
+        <v>622471</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -1777,46 +1777,46 @@
         <v>1380</v>
       </c>
       <c r="D19" s="7">
-        <v>1382577</v>
+        <v>1338099</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>2222</v>
       </c>
       <c r="I19" s="7">
-        <v>1578881</v>
+        <v>1497493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>3602</v>
       </c>
       <c r="N19" s="7">
-        <v>2961459</v>
+        <v>2835592</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,46 +1828,46 @@
         <v>57</v>
       </c>
       <c r="D20" s="7">
-        <v>115675</v>
+        <v>306874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>74664</v>
+        <v>67498</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>169</v>
       </c>
       <c r="N20" s="7">
-        <v>190339</v>
+        <v>374372</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,46 +1879,46 @@
         <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>10516</v>
+        <v>9676</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
       </c>
       <c r="I21" s="7">
-        <v>15891</v>
+        <v>14665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
       </c>
       <c r="N21" s="7">
-        <v>26406</v>
+        <v>24340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,46 +1930,46 @@
         <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>6605</v>
+        <v>5938</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>10127</v>
+        <v>9319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>1451</v>
       </c>
       <c r="D23" s="7">
-        <v>1512290</v>
+        <v>1658030</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -1996,7 +1996,7 @@
         <v>2364</v>
       </c>
       <c r="I23" s="7">
-        <v>1676040</v>
+        <v>1585593</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2011,7 +2011,7 @@
         <v>3815</v>
       </c>
       <c r="N23" s="7">
-        <v>3188331</v>
+        <v>3243623</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
